--- a/groups/24-25-Univers/tasks_results/25.01.13.xlsx
+++ b/groups/24-25-Univers/tasks_results/25.01.13.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$M$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$M$10</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>№</t>
   </si>
@@ -124,10 +124,64 @@
     <t>-</t>
   </si>
   <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>2+, 3-</t>
+  </si>
+  <si>
+    <t>1+, 2-</t>
+  </si>
+  <si>
+    <t>2+, 8-</t>
+  </si>
+  <si>
+    <t>1-</t>
+  </si>
+  <si>
+    <t>1+, 3-</t>
+  </si>
+  <si>
+    <t>6-</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>1+, 4-</t>
+  </si>
+  <si>
+    <t>10-</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>1+</t>
+  </si>
+  <si>
+    <t>2+</t>
+  </si>
+  <si>
     <t>1047</t>
   </si>
   <si>
-    <t>1+</t>
+    <t>1+, 1-</t>
+  </si>
+  <si>
+    <t>2+, 1-</t>
+  </si>
+  <si>
+    <t>1900</t>
+  </si>
+  <si>
+    <t>3+</t>
+  </si>
+  <si>
+    <t>1+, 7-</t>
+  </si>
+  <si>
+    <t>5+, 1-</t>
   </si>
 </sst>
 </file>
@@ -159,7 +213,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,6 +223,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -185,13 +245,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,7 +547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -626,34 +687,34 @@
         <v>33</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -679,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -694,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -710,9 +771,110 @@
       <c r="B6" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M6"/>
+  <autoFilter ref="A1:M10"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -739,6 +901,10 @@
     <hyperlink ref="L3" r:id="rId23"/>
     <hyperlink ref="M3" r:id="rId24"/>
     <hyperlink ref="A6" r:id="rId25"/>
+    <hyperlink ref="A7" r:id="rId26"/>
+    <hyperlink ref="A8" r:id="rId27"/>
+    <hyperlink ref="A9" r:id="rId28"/>
+    <hyperlink ref="A10" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/24-25-Univers/tasks_results/25.01.13.xlsx
+++ b/groups/24-25-Univers/tasks_results/25.01.13.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
   <si>
     <t>№</t>
   </si>
@@ -118,6 +118,12 @@
     <t>kjuby</t>
   </si>
   <si>
+    <t>MaximTreg</t>
+  </si>
+  <si>
+    <t>azzazichka</t>
+  </si>
+  <si>
     <t>+</t>
   </si>
   <si>
@@ -142,7 +148,7 @@
     <t>1+, 3-</t>
   </si>
   <si>
-    <t>6-</t>
+    <t>1+, 13-</t>
   </si>
   <si>
     <t>139</t>
@@ -151,7 +157,7 @@
     <t>1+, 4-</t>
   </si>
   <si>
-    <t>10-</t>
+    <t>1+, 15-</t>
   </si>
   <si>
     <t>187</t>
@@ -670,10 +676,10 @@
         <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>28</v>
@@ -684,7 +690,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -693,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -714,7 +720,7 @@
         <v>4</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -725,7 +731,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -755,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -766,111 +772,120 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
